--- a/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-6.xlsx
+++ b/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-6.xlsx
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>まっすぐ行く|まっすぐいき</t>
+          <t>まっすぐ行く|まっすぐいく</t>
         </is>
       </c>
     </row>
